--- a/public/home/Book2 (007).xlsx
+++ b/public/home/Book2 (007).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qudo\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\OOR9JUWE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngmai1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -285,14 +285,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -704,14 +704,14 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
@@ -725,10 +725,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -747,11 +747,11 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="5">
         <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="F2" s="6">
         <v>44634</v>
@@ -770,11 +770,11 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="5">
         <v>45</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F3" s="6">
         <v>44634</v>
@@ -793,11 +793,11 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="5">
         <v>45</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F4" s="6">
         <v>44634</v>
@@ -816,11 +816,11 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="5">
         <v>45</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F5" s="6">
         <v>44634</v>
@@ -839,11 +839,11 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="5">
         <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F6" s="6">
         <v>44634</v>
@@ -862,11 +862,11 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5">
-        <v>65</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>67</v>
+      <c r="D7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="5">
+        <v>65</v>
       </c>
       <c r="F7" s="6">
         <v>44634</v>
@@ -885,11 +885,11 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5">
-        <v>65</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>67</v>
+      <c r="D8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="5">
+        <v>65</v>
       </c>
       <c r="F8" s="6">
         <v>44634</v>
@@ -908,11 +908,11 @@
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5">
-        <v>65</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>67</v>
+      <c r="D9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="5">
+        <v>65</v>
       </c>
       <c r="F9" s="6">
         <v>44634</v>
@@ -931,11 +931,11 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5">
-        <v>65</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>67</v>
+      <c r="D10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="5">
+        <v>65</v>
       </c>
       <c r="F10" s="6">
         <v>44634</v>
@@ -954,11 +954,11 @@
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5">
-        <v>65</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>67</v>
+      <c r="D11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="5">
+        <v>65</v>
       </c>
       <c r="F11" s="6">
         <v>44634</v>
@@ -977,11 +977,11 @@
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5">
-        <v>65</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>67</v>
+      <c r="D12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="5">
+        <v>65</v>
       </c>
       <c r="F12" s="6">
         <v>44634</v>
@@ -1000,11 +1000,11 @@
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="5">
-        <v>65</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>67</v>
+      <c r="D13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="5">
+        <v>65</v>
       </c>
       <c r="F13" s="6">
         <v>44634</v>
@@ -1023,11 +1023,11 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5">
-        <v>65</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>67</v>
+      <c r="D14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="5">
+        <v>65</v>
       </c>
       <c r="F14" s="6">
         <v>44634</v>
@@ -1046,11 +1046,11 @@
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="5">
-        <v>65</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>67</v>
+      <c r="D15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="5">
+        <v>65</v>
       </c>
       <c r="F15" s="6">
         <v>44634</v>
@@ -1069,11 +1069,11 @@
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="5">
-        <v>65</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>67</v>
+      <c r="D16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="5">
+        <v>65</v>
       </c>
       <c r="F16" s="6">
         <v>44634</v>
@@ -1092,11 +1092,11 @@
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="5">
-        <v>65</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>67</v>
+      <c r="D17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="5">
+        <v>65</v>
       </c>
       <c r="F17" s="6">
         <v>44634</v>
@@ -1115,11 +1115,11 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="5">
-        <v>65</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>67</v>
+      <c r="D18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="5">
+        <v>65</v>
       </c>
       <c r="F18" s="6">
         <v>44634</v>
@@ -1138,11 +1138,11 @@
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="5">
         <v>50</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F19" s="6">
         <v>44634</v>
@@ -1161,11 +1161,11 @@
       <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="5">
         <v>50</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F20" s="6">
         <v>44634</v>
@@ -1184,11 +1184,11 @@
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="5">
         <v>50</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F21" s="6">
         <v>44634</v>
@@ -1207,11 +1207,11 @@
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="5">
         <v>50</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F22" s="6">
         <v>44634</v>
@@ -1230,11 +1230,11 @@
       <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="5">
         <v>45</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F23" s="6">
         <v>44634</v>
@@ -1253,11 +1253,11 @@
       <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="5">
         <v>45</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F24" s="6">
         <v>44634</v>
@@ -1276,11 +1276,11 @@
       <c r="C25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="5">
         <v>45</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F25" s="6">
         <v>44634</v>
@@ -1299,11 +1299,11 @@
       <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="5">
         <v>30</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F26" s="6">
         <v>44634</v>
@@ -1322,11 +1322,11 @@
       <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="5">
         <v>30</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F27" s="6">
         <v>44634</v>
@@ -1345,11 +1345,11 @@
       <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="5">
         <v>30</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F28" s="6">
         <v>44634</v>
@@ -1368,11 +1368,11 @@
       <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="5">
         <v>45</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F29" s="6">
         <v>44634</v>
@@ -1391,11 +1391,11 @@
       <c r="C30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="5">
         <v>30</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="F30" s="6">
         <v>44634</v>
@@ -1414,11 +1414,11 @@
       <c r="C31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="5">
         <v>45</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F31" s="6">
         <v>44634</v>
@@ -1437,11 +1437,11 @@
       <c r="C32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="5">
         <v>45</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F32" s="6">
         <v>44634</v>
@@ -1460,11 +1460,11 @@
       <c r="C33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="5">
         <v>45</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F33" s="6">
         <v>44634</v>
@@ -1483,11 +1483,11 @@
       <c r="C34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="5">
         <v>45</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F34" s="6">
         <v>44634</v>
@@ -1506,11 +1506,11 @@
       <c r="C35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="5">
         <v>45</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="F35" s="6">
         <v>44634</v>
@@ -1529,11 +1529,11 @@
       <c r="C36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="5">
-        <v>65</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>67</v>
+      <c r="D36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="5">
+        <v>65</v>
       </c>
       <c r="F36" s="6">
         <v>44634</v>
@@ -1552,11 +1552,11 @@
       <c r="C37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="5">
-        <v>65</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>67</v>
+      <c r="D37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="5">
+        <v>65</v>
       </c>
       <c r="F37" s="6">
         <v>44634</v>
@@ -1575,11 +1575,11 @@
       <c r="C38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="5">
-        <v>65</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>67</v>
+      <c r="D38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="5">
+        <v>65</v>
       </c>
       <c r="F38" s="6">
         <v>44634</v>
@@ -1598,11 +1598,11 @@
       <c r="C39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="5">
-        <v>65</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>67</v>
+      <c r="D39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="5">
+        <v>65</v>
       </c>
       <c r="F39" s="6">
         <v>44634</v>
@@ -1621,11 +1621,11 @@
       <c r="C40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="5">
-        <v>65</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>67</v>
+      <c r="D40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="5">
+        <v>65</v>
       </c>
       <c r="F40" s="6">
         <v>44634</v>
@@ -1644,11 +1644,11 @@
       <c r="C41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="5">
-        <v>65</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>67</v>
+      <c r="D41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="5">
+        <v>65</v>
       </c>
       <c r="F41" s="6">
         <v>44634</v>
@@ -1667,11 +1667,11 @@
       <c r="C42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="5">
-        <v>65</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>67</v>
+      <c r="D42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="5">
+        <v>65</v>
       </c>
       <c r="F42" s="6">
         <v>44634</v>
@@ -1690,11 +1690,11 @@
       <c r="C43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="5">
-        <v>65</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>67</v>
+      <c r="D43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="5">
+        <v>65</v>
       </c>
       <c r="F43" s="6">
         <v>44634</v>
@@ -1713,11 +1713,11 @@
       <c r="C44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="5">
-        <v>65</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>67</v>
+      <c r="D44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="5">
+        <v>65</v>
       </c>
       <c r="F44" s="6">
         <v>44634</v>
@@ -1736,11 +1736,11 @@
       <c r="C45" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="5">
-        <v>65</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>67</v>
+      <c r="D45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="5">
+        <v>65</v>
       </c>
       <c r="F45" s="6">
         <v>44634</v>
@@ -1759,11 +1759,11 @@
       <c r="C46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="5">
-        <v>65</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>67</v>
+      <c r="D46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="5">
+        <v>65</v>
       </c>
       <c r="F46" s="6">
         <v>44634</v>
@@ -1782,11 +1782,11 @@
       <c r="C47" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="5">
-        <v>65</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>67</v>
+      <c r="D47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="5">
+        <v>65</v>
       </c>
       <c r="F47" s="6">
         <v>44634</v>
@@ -1805,11 +1805,11 @@
       <c r="C48" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="5">
         <v>50</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F48" s="6">
         <v>44634</v>
@@ -1828,11 +1828,11 @@
       <c r="C49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="5">
         <v>50</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F49" s="6">
         <v>44634</v>
@@ -1851,11 +1851,11 @@
       <c r="C50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="5">
         <v>50</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F50" s="6">
         <v>44634</v>
@@ -1874,11 +1874,11 @@
       <c r="C51" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="5">
         <v>45</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F51" s="6">
         <v>44634</v>
@@ -1897,11 +1897,11 @@
       <c r="C52" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="5">
         <v>45</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F52" s="6">
         <v>44634</v>
@@ -1920,11 +1920,11 @@
       <c r="C53" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="5">
         <v>45</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F53" s="6">
         <v>44634</v>
@@ -1943,11 +1943,11 @@
       <c r="C54" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" s="5">
         <v>45</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F54" s="6">
         <v>44634</v>
@@ -1966,11 +1966,11 @@
       <c r="C55" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="5">
         <v>45</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F55" s="6">
         <v>44634</v>
@@ -1989,11 +1989,11 @@
       <c r="C56" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="5">
         <v>30</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F56" s="6">
         <v>44634</v>
@@ -2012,11 +2012,11 @@
       <c r="C57" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="5">
         <v>30</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F57" s="6">
         <v>44634</v>
@@ -2035,11 +2035,11 @@
       <c r="C58" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="5">
         <v>30</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F58" s="6">
         <v>44634</v>
